--- a/SampleSheet.xlsx
+++ b/SampleSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagendra Tripathi\OneDrive\Documents\UiPath\UiPathHyperAutomate\New\UipathProject_TestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3AE1F642-F325-4C4A-B8EA-FB7696FF4A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CE8AF0D6-3F06-469D-A416-2CC510CE22C7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3AE1F642-F325-4C4A-B8EA-FB7696FF4A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ACF8A0C0-2958-4820-B821-571C28262FC4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>C:\Users\Nagendra Tripathi\OneDrive\Documents\UiPath\UiPathHyperAutomate\New\UipathProject_TestAutomation\Reports\RPA Tests</t>
+  </si>
+  <si>
+    <t>hnjsdkj</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -435,6 +438,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
